--- a/P3/Curva calibración.xlsx
+++ b/P3/Curva calibración.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Lab-Sistemas-Electr-nicos\P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E42D2413-BF3E-4679-AAC4-EE0F595C0D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B490C5-1A80-4426-B3E6-420364711CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DEBD0E5-8100-49A2-902B-85D429A3B0E5}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{5DEBD0E5-8100-49A2-902B-85D429A3B0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Peso</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> medido</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -159,10 +189,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -182,6 +210,70 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.42543591426071742"/>
+                  <c:y val="-1.9817672790901138E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$9</c:f>
@@ -287,10 +379,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peso P [g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -349,6 +496,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Valor medido</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> por ADC</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1005,13 +1212,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1352,16 +1559,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCA5552-DE11-425F-8BC2-8B751149B0FC}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>129</v>
       </c>
@@ -1383,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>118</v>
       </c>
@@ -1397,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1411,7 +1618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>102-19</f>
         <v>83</v>
@@ -1427,7 +1634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5+70</f>
         <v>153</v>
@@ -1442,7 +1649,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+99</f>
         <v>252</v>
@@ -1457,7 +1664,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1471,7 +1678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -1486,7 +1693,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>D9+99</f>
         <v>298</v>
@@ -1495,7 +1702,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>4</v>
       </c>
